--- a/Misc/JackieK-WorkLog.xlsx
+++ b/Misc/JackieK-WorkLog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2025 Winter\CSIS 4495\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025 Winter\CSIS 4495\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D882B96C-6F4E-4E9E-98CE-E86534B36C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED76F66F-9FC6-4F00-ADBC-DEE01022C1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5970" yWindow="2925" windowWidth="28800" windowHeight="15435" xr2:uid="{16D1361F-AF8A-45DB-84EB-D1BC3ADF0A0C}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="18690" windowHeight="15585" xr2:uid="{16D1361F-AF8A-45DB-84EB-D1BC3ADF0A0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -80,17 +80,37 @@
   </si>
   <si>
     <t>Progress Report 1 was generated</t>
+  </si>
+  <si>
+    <t>Gathered tools and commands which I can use for automated scanning tool (Nmap, OpenVas, Metasploit Framework)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gathered tools and commands which I can use for automated scanning tool (Nikto, Xprobe2, SMBClient)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gathered tools and commands which I can use for automated scanning tool (Whatweb, Hydra, SonarQube)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tested each commands in Linux and identified which components or information can be generated as outcome (only Nmap)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tested each commands in Linux and identified which components or information can be generated as outcome (rest of the tools)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -98,7 +118,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -107,6 +127,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -165,7 +192,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -185,13 +212,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="셀 확인" xfId="1" builtinId="23"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -307,9 +331,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -347,7 +371,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -453,7 +477,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -595,7 +619,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -603,20 +627,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823B59C3-F7FB-4C88-B062-D5C7F3EC4BE0}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.125" customWidth="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
     <col min="3" max="3" width="88" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,7 +651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45673</v>
       </c>
@@ -638,7 +662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>45675</v>
       </c>
@@ -649,7 +673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>45676</v>
       </c>
@@ -660,7 +684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>45677</v>
       </c>
@@ -671,95 +695,151 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>45680</v>
       </c>
-      <c r="B6" s="5">
-        <v>2</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>45684</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>1.5</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>45686</v>
       </c>
-      <c r="B8" s="5">
-        <v>2</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>45688</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>1.5</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>45691</v>
       </c>
-      <c r="B10" s="5">
-        <v>2</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>45693</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="3">
         <v>1.5</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>45695</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="3">
         <v>3</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>45696</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="3">
         <v>1</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="14" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>45698</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>45700</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>45701</v>
+      </c>
+      <c r="B16" s="5">
+        <v>2</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>45702</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>45703</v>
+      </c>
+      <c r="B18" s="5">
+        <v>4</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -771,8 +851,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Misc/JackieK-WorkLog.xlsx
+++ b/Misc/JackieK-WorkLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025 Winter\CSIS 4495\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED76F66F-9FC6-4F00-ADBC-DEE01022C1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37595C88-21A9-4D6B-9963-BFA941630E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="18690" windowHeight="15585" xr2:uid="{16D1361F-AF8A-45DB-84EB-D1BC3ADF0A0C}"/>
+    <workbookView xWindow="7200" yWindow="135" windowWidth="21600" windowHeight="12570" xr2:uid="{16D1361F-AF8A-45DB-84EB-D1BC3ADF0A0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -99,6 +99,10 @@
   </si>
   <si>
     <t>Tested each commands in Linux and identified which components or information can be generated as outcome (rest of the tools)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>python file to execute commands was created</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -627,9 +631,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823B59C3-F7FB-4C88-B062-D5C7F3EC4BE0}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -787,10 +791,10 @@
       <c r="A14" s="2">
         <v>45698</v>
       </c>
-      <c r="B14" s="5">
-        <v>2</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -798,10 +802,10 @@
       <c r="A15" s="2">
         <v>45700</v>
       </c>
-      <c r="B15" s="5">
-        <v>2</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -809,10 +813,10 @@
       <c r="A16" s="2">
         <v>45701</v>
       </c>
-      <c r="B16" s="5">
-        <v>2</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -820,10 +824,10 @@
       <c r="A17" s="2">
         <v>45702</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="3">
         <v>1.5</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -831,11 +835,22 @@
       <c r="A18" s="2">
         <v>45703</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="3">
         <v>4</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="4" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>45706</v>
+      </c>
+      <c r="B19" s="5">
+        <v>2</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Misc/JackieK-WorkLog.xlsx
+++ b/Misc/JackieK-WorkLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025 Winter\CSIS 4495\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37595C88-21A9-4D6B-9963-BFA941630E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26BA5CA-0661-480D-A060-D1CA0EA75163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="135" windowWidth="21600" windowHeight="12570" xr2:uid="{16D1361F-AF8A-45DB-84EB-D1BC3ADF0A0C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -103,6 +103,10 @@
   </si>
   <si>
     <t>python file to execute commands was created</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python file was updated to include more commands, Metasploit framework tool was tested</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -631,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823B59C3-F7FB-4C88-B062-D5C7F3EC4BE0}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -846,11 +850,22 @@
       <c r="A19" s="2">
         <v>45706</v>
       </c>
-      <c r="B19" s="5">
-        <v>2</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="B19" s="3">
+        <v>2</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>45707</v>
+      </c>
+      <c r="B20" s="5">
+        <v>4</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Misc/JackieK-WorkLog.xlsx
+++ b/Misc/JackieK-WorkLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025 Winter\CSIS 4495\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26BA5CA-0661-480D-A060-D1CA0EA75163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A182AF26-7766-4563-B5EF-5C42EB99B83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="135" windowWidth="21600" windowHeight="12570" xr2:uid="{16D1361F-AF8A-45DB-84EB-D1BC3ADF0A0C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -107,6 +107,10 @@
   </si>
   <si>
     <t>Python file was updated to include more commands, Metasploit framework tool was tested</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python file was updated and decided to eliminate p0f tool since it is redundant and it is constantly causing error, SonarQube tool was tested for code check. However, I failed to use this tool and couldn’t make it work. I switched to use another tool called "Semgrep".</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -635,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823B59C3-F7FB-4C88-B062-D5C7F3EC4BE0}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A21" sqref="A21:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -861,11 +865,22 @@
       <c r="A20" s="2">
         <v>45707</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="3">
         <v>4</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="4" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="47.25" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>45708</v>
+      </c>
+      <c r="B21" s="5">
+        <v>4</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Misc/JackieK-WorkLog.xlsx
+++ b/Misc/JackieK-WorkLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025 Winter\CSIS 4495\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A182AF26-7766-4563-B5EF-5C42EB99B83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBA33DE-39C0-4E86-8EE2-62A3211AF066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="135" windowWidth="21600" windowHeight="12570" xr2:uid="{16D1361F-AF8A-45DB-84EB-D1BC3ADF0A0C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -111,6 +111,10 @@
   </si>
   <si>
     <t>Python file was updated and decided to eliminate p0f tool since it is redundant and it is constantly causing error, SonarQube tool was tested for code check. However, I failed to use this tool and couldn’t make it work. I switched to use another tool called "Semgrep".</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debugged the code for automated scanning tool and started generating reports.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -639,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823B59C3-F7FB-4C88-B062-D5C7F3EC4BE0}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:C21"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -876,11 +880,22 @@
       <c r="A21" s="2">
         <v>45708</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="3">
         <v>4</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="4" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>45710</v>
+      </c>
+      <c r="B22" s="5">
+        <v>4</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Misc/JackieK-WorkLog.xlsx
+++ b/Misc/JackieK-WorkLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025 Winter\CSIS 4495\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBA33DE-39C0-4E86-8EE2-62A3211AF066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF7E389-2CCF-4885-A8A6-90FA5206F78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="135" windowWidth="21600" windowHeight="12570" xr2:uid="{16D1361F-AF8A-45DB-84EB-D1BC3ADF0A0C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -115,6 +115,10 @@
   </si>
   <si>
     <t>Debugged the code for automated scanning tool and started generating reports.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Final check with the tool and midterm report generation</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -643,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823B59C3-F7FB-4C88-B062-D5C7F3EC4BE0}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -667,7 +671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45673</v>
       </c>
@@ -678,7 +682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>45675</v>
       </c>
@@ -689,7 +693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>45676</v>
       </c>
@@ -700,7 +704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>45677</v>
       </c>
@@ -711,7 +715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>45680</v>
       </c>
@@ -722,7 +726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>45684</v>
       </c>
@@ -733,7 +737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>45686</v>
       </c>
@@ -744,7 +748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>45688</v>
       </c>
@@ -755,7 +759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>45691</v>
       </c>
@@ -766,7 +770,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>45693</v>
       </c>
@@ -777,7 +781,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>45695</v>
       </c>
@@ -788,7 +792,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>45696</v>
       </c>
@@ -891,11 +895,22 @@
       <c r="A22" s="2">
         <v>45710</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="3">
         <v>4</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="4" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>45711</v>
+      </c>
+      <c r="B23" s="5">
+        <v>6</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Misc/JackieK-WorkLog.xlsx
+++ b/Misc/JackieK-WorkLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025 Winter\CSIS 4495\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF7E389-2CCF-4885-A8A6-90FA5206F78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C73AD1-0837-40D6-BA90-0D975B6A7E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="135" windowWidth="21600" windowHeight="12570" xr2:uid="{16D1361F-AF8A-45DB-84EB-D1BC3ADF0A0C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -119,6 +119,14 @@
   </si>
   <si>
     <t>Final check with the tool and midterm report generation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Researched about AI tool for remediation suggestion</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tried to integrate LangChain (RAG AI tool) with existing code</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -647,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823B59C3-F7FB-4C88-B062-D5C7F3EC4BE0}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C23"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -906,11 +914,33 @@
       <c r="A23" s="2">
         <v>45711</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="3">
         <v>6</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="4" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>45713</v>
+      </c>
+      <c r="B24" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>45714</v>
+      </c>
+      <c r="B25" s="5">
+        <v>4</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Misc/JackieK-WorkLog.xlsx
+++ b/Misc/JackieK-WorkLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025 Winter\CSIS 4495\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C73AD1-0837-40D6-BA90-0D975B6A7E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26881F7F-B8B5-4FE0-BD8F-3D1FD5D012B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="135" windowWidth="21600" windowHeight="12570" xr2:uid="{16D1361F-AF8A-45DB-84EB-D1BC3ADF0A0C}"/>
+    <workbookView xWindow="8895" yWindow="150" windowWidth="21600" windowHeight="12570" xr2:uid="{16D1361F-AF8A-45DB-84EB-D1BC3ADF0A0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -127,6 +127,14 @@
   </si>
   <si>
     <t>Tried to integrate LangChain (RAG AI tool) with existing code</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Explored more tools and commands (Masscan, tcpdump, netcat, sn1per)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Explored more tools and commands (Arachni, burpsuite, commix, dirbuster, dnsmap, sublist3r, openVAS, hydra)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -655,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823B59C3-F7FB-4C88-B062-D5C7F3EC4BE0}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -925,10 +933,10 @@
       <c r="A24" s="2">
         <v>45713</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="3">
         <v>1.5</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -936,11 +944,33 @@
       <c r="A25" s="2">
         <v>45714</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="3">
         <v>4</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="4" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>45716</v>
+      </c>
+      <c r="B26" s="5">
+        <v>4</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>45717</v>
+      </c>
+      <c r="B27" s="5">
+        <v>6</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Misc/JackieK-WorkLog.xlsx
+++ b/Misc/JackieK-WorkLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025 Winter\CSIS 4495\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26881F7F-B8B5-4FE0-BD8F-3D1FD5D012B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1B5725-6298-4528-BD42-6897CC8520B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8895" yWindow="150" windowWidth="21600" windowHeight="12570" xr2:uid="{16D1361F-AF8A-45DB-84EB-D1BC3ADF0A0C}"/>
+    <workbookView xWindow="720" yWindow="495" windowWidth="21600" windowHeight="12570" xr2:uid="{16D1361F-AF8A-45DB-84EB-D1BC3ADF0A0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -135,6 +135,10 @@
   </si>
   <si>
     <t>Explored more tools and commands (Arachni, burpsuite, commix, dirbuster, dnsmap, sublist3r, openVAS, hydra)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Explored more tools and commands (little bit more on commix, fierce, Dirb, WPScan, ettercap, xsser)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -228,7 +232,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -244,9 +248,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -663,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823B59C3-F7FB-4C88-B062-D5C7F3EC4BE0}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -955,10 +956,10 @@
       <c r="A26" s="2">
         <v>45716</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="3">
         <v>4</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -966,11 +967,22 @@
       <c r="A27" s="2">
         <v>45717</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="3">
         <v>6</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="4" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>45718</v>
+      </c>
+      <c r="B28" s="5">
+        <v>4</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Misc/JackieK-WorkLog.xlsx
+++ b/Misc/JackieK-WorkLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025 Winter\CSIS 4495\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1B5725-6298-4528-BD42-6897CC8520B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316CCC95-9651-4DA8-9D8E-E728B1D6ADDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="495" windowWidth="21600" windowHeight="12570" xr2:uid="{16D1361F-AF8A-45DB-84EB-D1BC3ADF0A0C}"/>
+    <workbookView xWindow="12885" yWindow="2730" windowWidth="21600" windowHeight="12570" xr2:uid="{16D1361F-AF8A-45DB-84EB-D1BC3ADF0A0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -139,6 +139,10 @@
   </si>
   <si>
     <t>Explored more tools and commands (little bit more on commix, fierce, Dirb, WPScan, ettercap, xsser)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finalized the commands which will be used for scanning and developed python scripts</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -232,7 +236,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -245,9 +249,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -664,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823B59C3-F7FB-4C88-B062-D5C7F3EC4BE0}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -978,11 +979,22 @@
       <c r="A28" s="2">
         <v>45718</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="3">
         <v>4</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>45719</v>
+      </c>
+      <c r="B29" s="3">
+        <v>4</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Misc/JackieK-WorkLog.xlsx
+++ b/Misc/JackieK-WorkLog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025 Winter\CSIS 4495\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316CCC95-9651-4DA8-9D8E-E728B1D6ADDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C346F5B1-E342-4399-AAE2-EDD5A0D7DC60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12885" yWindow="2730" windowWidth="21600" windowHeight="12570" xr2:uid="{16D1361F-AF8A-45DB-84EB-D1BC3ADF0A0C}"/>
+    <workbookView xWindow="4905" yWindow="675" windowWidth="21600" windowHeight="12570" xr2:uid="{16D1361F-AF8A-45DB-84EB-D1BC3ADF0A0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -143,6 +143,14 @@
   </si>
   <si>
     <t>Finalized the commands which will be used for scanning and developed python scripts</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Based on the conversation with Priya, the end user, the scope of scanning, its purpose, and the final deliverable were clearly defined, making the objectives more specific and well-defined.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Continue developing automated scanning tools and AI integration. Decided to eliminate using Semgrep tool.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -236,7 +244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -248,6 +256,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -665,9 +679,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823B59C3-F7FB-4C88-B062-D5C7F3EC4BE0}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -689,7 +703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45673</v>
       </c>
@@ -700,7 +714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>45675</v>
       </c>
@@ -711,7 +725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>45676</v>
       </c>
@@ -722,7 +736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>45677</v>
       </c>
@@ -733,7 +747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>45680</v>
       </c>
@@ -744,7 +758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>45684</v>
       </c>
@@ -755,7 +769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>45686</v>
       </c>
@@ -766,7 +780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>45688</v>
       </c>
@@ -777,7 +791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>45691</v>
       </c>
@@ -788,7 +802,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>45693</v>
       </c>
@@ -799,7 +813,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>45695</v>
       </c>
@@ -810,7 +824,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>45696</v>
       </c>
@@ -995,6 +1009,28 @@
       </c>
       <c r="C29" s="4" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>45722</v>
+      </c>
+      <c r="B30" s="5">
+        <v>1</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>45724</v>
+      </c>
+      <c r="B31" s="5">
+        <v>6</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Misc/JackieK-WorkLog.xlsx
+++ b/Misc/JackieK-WorkLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025 Winter\CSIS 4495\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C346F5B1-E342-4399-AAE2-EDD5A0D7DC60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C485C4B7-24B5-4997-AFB3-55C537CE5641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4905" yWindow="675" windowWidth="21600" windowHeight="12570" xr2:uid="{16D1361F-AF8A-45DB-84EB-D1BC3ADF0A0C}"/>
   </bookViews>
@@ -150,7 +150,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Continue developing automated scanning tools and AI integration. Decided to eliminate using Semgrep tool.</t>
+    <t>Continue developing automated scanning tools and AI integration. Decided to eliminate using Semgrep tool. Simulated environment for testing purpose was established.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -244,7 +244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -256,12 +256,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -681,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823B59C3-F7FB-4C88-B062-D5C7F3EC4BE0}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1015,10 +1009,10 @@
       <c r="A30" s="2">
         <v>45722</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="3">
         <v>1</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1026,10 +1020,10 @@
       <c r="A31" s="2">
         <v>45724</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="3">
         <v>6</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="4" t="s">
         <v>32</v>
       </c>
     </row>

--- a/Misc/JackieK-WorkLog.xlsx
+++ b/Misc/JackieK-WorkLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025 Winter\CSIS 4495\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C485C4B7-24B5-4997-AFB3-55C537CE5641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219A0517-30B5-4B21-B7C5-F03D6DB8C9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4905" yWindow="675" windowWidth="21600" windowHeight="12570" xr2:uid="{16D1361F-AF8A-45DB-84EB-D1BC3ADF0A0C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -151,6 +151,10 @@
   </si>
   <si>
     <t>Continue developing automated scanning tools and AI integration. Decided to eliminate using Semgrep tool. Simulated environment for testing purpose was established.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Struggled with integrating AI tool. It seems like there is problem with API key for AI tool. </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -673,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823B59C3-F7FB-4C88-B062-D5C7F3EC4BE0}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1025,6 +1029,17 @@
       </c>
       <c r="C31" s="4" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>45725</v>
+      </c>
+      <c r="B32" s="3">
+        <v>4</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Misc/JackieK-WorkLog.xlsx
+++ b/Misc/JackieK-WorkLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025 Winter\CSIS 4495\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219A0517-30B5-4B21-B7C5-F03D6DB8C9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC418AF-5986-4AE3-9DE4-9336FC21F459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4905" yWindow="675" windowWidth="21600" windowHeight="12570" xr2:uid="{16D1361F-AF8A-45DB-84EB-D1BC3ADF0A0C}"/>
+    <workbookView xWindow="5595" yWindow="1470" windowWidth="21600" windowHeight="12570" xr2:uid="{16D1361F-AF8A-45DB-84EB-D1BC3ADF0A0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -155,6 +155,10 @@
   </si>
   <si>
     <t xml:space="preserve">Struggled with integrating AI tool. It seems like there is problem with API key for AI tool. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Changed AI tool from Langchain to Ollama since langchain tool requires API key. Worked on python script to integrate new AI tool</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -248,7 +252,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -260,6 +264,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -677,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823B59C3-F7FB-4C88-B062-D5C7F3EC4BE0}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1040,6 +1050,17 @@
       </c>
       <c r="C32" s="4" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>45727</v>
+      </c>
+      <c r="B33" s="5">
+        <v>3</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Misc/JackieK-WorkLog.xlsx
+++ b/Misc/JackieK-WorkLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025 Winter\CSIS 4495\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC418AF-5986-4AE3-9DE4-9336FC21F459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24092F9-4803-4051-81AB-97C715B5FB02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5595" yWindow="1470" windowWidth="21600" windowHeight="12570" xr2:uid="{16D1361F-AF8A-45DB-84EB-D1BC3ADF0A0C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -159,6 +159,10 @@
   </si>
   <si>
     <t>Changed AI tool from Langchain to Ollama since langchain tool requires API key. Worked on python script to integrate new AI tool</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finalized Network Security Scanning Tool : Nmap, Web App Security Scanning Tool : OWASP ZAP. Another verification for OWASP ZAP is required. If this can not be verified, I need select second best tool.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -687,7 +691,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823B59C3-F7FB-4C88-B062-D5C7F3EC4BE0}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
@@ -1056,11 +1060,22 @@
       <c r="A33" s="2">
         <v>45727</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="3">
         <v>3</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="4" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>45728</v>
+      </c>
+      <c r="B34" s="5">
+        <v>6</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Misc/JackieK-WorkLog.xlsx
+++ b/Misc/JackieK-WorkLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025 Winter\CSIS 4495\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24092F9-4803-4051-81AB-97C715B5FB02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B707D48E-9CA3-4ACB-9FB0-73D30AB55289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5595" yWindow="1470" windowWidth="21600" windowHeight="12570" xr2:uid="{16D1361F-AF8A-45DB-84EB-D1BC3ADF0A0C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
@@ -163,6 +163,10 @@
   </si>
   <si>
     <t>Finalized Network Security Scanning Tool : Nmap, Web App Security Scanning Tool : OWASP ZAP. Another verification for OWASP ZAP is required. If this can not be verified, I need select second best tool.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Changed web app security scanning tool : nikto, tested Ollama tool for analysis report.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -691,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823B59C3-F7FB-4C88-B062-D5C7F3EC4BE0}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1071,11 +1075,22 @@
       <c r="A34" s="2">
         <v>45728</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="3">
         <v>6</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="4" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>45730</v>
+      </c>
+      <c r="B35" s="5">
+        <v>4</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Misc/JackieK-WorkLog.xlsx
+++ b/Misc/JackieK-WorkLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025 Winter\CSIS 4495\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B707D48E-9CA3-4ACB-9FB0-73D30AB55289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C65211F-BDA3-4757-86C2-F7218B790C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5595" yWindow="1470" windowWidth="21600" windowHeight="12570" xr2:uid="{16D1361F-AF8A-45DB-84EB-D1BC3ADF0A0C}"/>
+    <workbookView xWindow="5985" yWindow="1560" windowWidth="21600" windowHeight="12570" xr2:uid="{16D1361F-AF8A-45DB-84EB-D1BC3ADF0A0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -167,6 +167,14 @@
   </si>
   <si>
     <t>Changed web app security scanning tool : nikto, tested Ollama tool for analysis report.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generated AI integrated script, generated progress report</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Worked on the front-end part of my script</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -695,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823B59C3-F7FB-4C88-B062-D5C7F3EC4BE0}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -719,7 +727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45673</v>
       </c>
@@ -730,7 +738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>45675</v>
       </c>
@@ -741,7 +749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>45676</v>
       </c>
@@ -752,7 +760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>45677</v>
       </c>
@@ -763,7 +771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>45680</v>
       </c>
@@ -774,7 +782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>45684</v>
       </c>
@@ -785,7 +793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>45686</v>
       </c>
@@ -796,7 +804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>45688</v>
       </c>
@@ -807,7 +815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>45691</v>
       </c>
@@ -818,7 +826,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>45693</v>
       </c>
@@ -829,7 +837,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>45695</v>
       </c>
@@ -840,7 +848,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>45696</v>
       </c>
@@ -851,7 +859,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>45698</v>
       </c>
@@ -862,7 +870,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>45700</v>
       </c>
@@ -873,7 +881,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>45701</v>
       </c>
@@ -884,7 +892,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>45702</v>
       </c>
@@ -895,7 +903,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>45703</v>
       </c>
@@ -906,7 +914,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>45706</v>
       </c>
@@ -917,7 +925,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>45707</v>
       </c>
@@ -928,7 +936,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="47.25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="47.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>45708</v>
       </c>
@@ -939,7 +947,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>45710</v>
       </c>
@@ -950,7 +958,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>45711</v>
       </c>
@@ -1086,11 +1094,33 @@
       <c r="A35" s="2">
         <v>45730</v>
       </c>
-      <c r="B35" s="5">
-        <v>4</v>
-      </c>
-      <c r="C35" s="6" t="s">
+      <c r="B35" s="3">
+        <v>4</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>45732</v>
+      </c>
+      <c r="B36" s="3">
+        <v>4</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>45734</v>
+      </c>
+      <c r="B37" s="5">
+        <v>4</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Misc/JackieK-WorkLog.xlsx
+++ b/Misc/JackieK-WorkLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025 Winter\CSIS 4495\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C65211F-BDA3-4757-86C2-F7218B790C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D8B7E6-28EB-46C7-A102-BBFAB0E84002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5985" yWindow="1560" windowWidth="21600" windowHeight="12570" xr2:uid="{16D1361F-AF8A-45DB-84EB-D1BC3ADF0A0C}"/>
   </bookViews>
@@ -225,7 +225,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -263,12 +263,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -282,11 +317,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -703,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823B59C3-F7FB-4C88-B062-D5C7F3EC4BE0}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1116,14 +1154,26 @@
       <c r="A37" s="2">
         <v>45734</v>
       </c>
-      <c r="B37" s="5">
-        <v>4</v>
-      </c>
-      <c r="C37" s="6" t="s">
+      <c r="B37" s="3">
+        <v>4</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>38</v>
       </c>
     </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>45735</v>
+      </c>
+      <c r="B38" s="6">
+        <v>4</v>
+      </c>
+      <c r="C38" s="7"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C37:C38"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Misc/JackieK-WorkLog.xlsx
+++ b/Misc/JackieK-WorkLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025 Winter\CSIS 4495\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D8B7E6-28EB-46C7-A102-BBFAB0E84002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95318BC7-ED3C-409B-9F12-3A02FB97AABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5985" yWindow="1560" windowWidth="21600" windowHeight="12570" xr2:uid="{16D1361F-AF8A-45DB-84EB-D1BC3ADF0A0C}"/>
   </bookViews>
@@ -225,7 +225,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -263,47 +263,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -317,14 +282,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -741,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823B59C3-F7FB-4C88-B062-D5C7F3EC4BE0}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="C37" sqref="C37:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1165,14 +1127,23 @@
       <c r="A38" s="2">
         <v>45735</v>
       </c>
-      <c r="B38" s="6">
-        <v>4</v>
-      </c>
-      <c r="C38" s="7"/>
+      <c r="B38" s="3">
+        <v>4</v>
+      </c>
+      <c r="C38" s="5"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>45737</v>
+      </c>
+      <c r="B39" s="6">
+        <v>6</v>
+      </c>
+      <c r="C39" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C37:C39"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Misc/JackieK-WorkLog.xlsx
+++ b/Misc/JackieK-WorkLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025 Winter\CSIS 4495\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95318BC7-ED3C-409B-9F12-3A02FB97AABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4F49A5-1D60-4182-AD37-999DFFC76668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5985" yWindow="1560" windowWidth="21600" windowHeight="12570" xr2:uid="{16D1361F-AF8A-45DB-84EB-D1BC3ADF0A0C}"/>
+    <workbookView xWindow="8295" yWindow="1455" windowWidth="21600" windowHeight="12570" xr2:uid="{16D1361F-AF8A-45DB-84EB-D1BC3ADF0A0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -268,7 +268,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -284,9 +284,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -703,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823B59C3-F7FB-4C88-B062-D5C7F3EC4BE0}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:C39"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -969,7 +966,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>45713</v>
       </c>
@@ -980,7 +977,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>45714</v>
       </c>
@@ -991,7 +988,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>45716</v>
       </c>
@@ -1002,7 +999,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>45717</v>
       </c>
@@ -1013,7 +1010,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>45718</v>
       </c>
@@ -1024,7 +1021,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>45719</v>
       </c>
@@ -1035,7 +1032,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>45722</v>
       </c>
@@ -1046,7 +1043,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>45724</v>
       </c>
@@ -1057,7 +1054,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>45725</v>
       </c>
@@ -1068,7 +1065,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>45727</v>
       </c>
@@ -1079,7 +1076,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>45728</v>
       </c>
@@ -1090,7 +1087,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>45730</v>
       </c>
@@ -1101,7 +1098,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>45732</v>
       </c>
@@ -1136,14 +1133,23 @@
       <c r="A39" s="2">
         <v>45737</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="3">
         <v>6</v>
       </c>
       <c r="C39" s="5"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>45739</v>
+      </c>
+      <c r="B40" s="3">
+        <v>6</v>
+      </c>
+      <c r="C40" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C37:C40"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Misc/JackieK-WorkLog.xlsx
+++ b/Misc/JackieK-WorkLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025 Winter\CSIS 4495\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4F49A5-1D60-4182-AD37-999DFFC76668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45E7708-20EF-4B07-9A61-7EAFE13483A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8295" yWindow="1455" windowWidth="21600" windowHeight="12570" xr2:uid="{16D1361F-AF8A-45DB-84EB-D1BC3ADF0A0C}"/>
+    <workbookView xWindow="5970" yWindow="1635" windowWidth="21600" windowHeight="12570" xr2:uid="{16D1361F-AF8A-45DB-84EB-D1BC3ADF0A0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -175,6 +175,10 @@
   </si>
   <si>
     <t>Worked on the front-end part of my script</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Worked on transforming the final output format</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -225,7 +229,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -263,12 +267,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -284,6 +299,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -700,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823B59C3-F7FB-4C88-B062-D5C7F3EC4BE0}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1146,6 +1167,17 @@
         <v>6</v>
       </c>
       <c r="C40" s="5"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>45742</v>
+      </c>
+      <c r="B41" s="6">
+        <v>4</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Misc/JackieK-WorkLog.xlsx
+++ b/Misc/JackieK-WorkLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025 Winter\CSIS 4495\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45E7708-20EF-4B07-9A61-7EAFE13483A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85FC9E2-1C55-44C4-8C01-8DA2D65B9D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5970" yWindow="1635" windowWidth="21600" windowHeight="12570" xr2:uid="{16D1361F-AF8A-45DB-84EB-D1BC3ADF0A0C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Date</t>
   </si>
@@ -179,6 +179,10 @@
   </si>
   <si>
     <t>Worked on transforming the final output format</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>With simulated environment, test results were obtained and analyzed for validation phase</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -229,7 +233,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -267,17 +271,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -303,7 +296,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -721,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823B59C3-F7FB-4C88-B062-D5C7F3EC4BE0}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1172,11 +1165,22 @@
       <c r="A41" s="2">
         <v>45742</v>
       </c>
-      <c r="B41" s="6">
-        <v>4</v>
-      </c>
-      <c r="C41" s="7" t="s">
+      <c r="B41" s="3">
+        <v>4</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>45745</v>
+      </c>
+      <c r="B42" s="6">
+        <v>10</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Misc/JackieK-WorkLog.xlsx
+++ b/Misc/JackieK-WorkLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025 Winter\CSIS 4495\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85FC9E2-1C55-44C4-8C01-8DA2D65B9D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932A699D-4A70-4EF5-9D9C-1EC5BE4DF70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5970" yWindow="1635" windowWidth="21600" windowHeight="12570" xr2:uid="{16D1361F-AF8A-45DB-84EB-D1BC3ADF0A0C}"/>
+    <workbookView xWindow="13905" yWindow="990" windowWidth="15495" windowHeight="12570" xr2:uid="{16D1361F-AF8A-45DB-84EB-D1BC3ADF0A0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -183,6 +183,10 @@
   </si>
   <si>
     <t>With simulated environment, test results were obtained and analyzed for validation phase</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compared known vulnerabilities from OWASP Juice Shop with test results, started final report generation</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -714,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823B59C3-F7FB-4C88-B062-D5C7F3EC4BE0}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1123,7 +1127,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>45734</v>
       </c>
@@ -1134,7 +1138,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>45735</v>
       </c>
@@ -1143,7 +1147,7 @@
       </c>
       <c r="C38" s="5"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>45737</v>
       </c>
@@ -1152,7 +1156,7 @@
       </c>
       <c r="C39" s="5"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>45739</v>
       </c>
@@ -1174,18 +1178,39 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
+        <v>45744</v>
+      </c>
+      <c r="B42" s="3">
+        <v>5</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
         <v>45745</v>
       </c>
-      <c r="B42" s="6">
-        <v>10</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>40</v>
+      <c r="B43" s="3">
+        <v>5</v>
+      </c>
+      <c r="C43" s="5"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>45746</v>
+      </c>
+      <c r="B44" s="6">
+        <v>4</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C37:C40"/>
+    <mergeCell ref="C42:C43"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Misc/JackieK-WorkLog.xlsx
+++ b/Misc/JackieK-WorkLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025 Winter\CSIS 4495\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932A699D-4A70-4EF5-9D9C-1EC5BE4DF70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFC6A95-9A58-476D-999F-69AC249DAC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13905" yWindow="990" windowWidth="15495" windowHeight="12570" xr2:uid="{16D1361F-AF8A-45DB-84EB-D1BC3ADF0A0C}"/>
+    <workbookView xWindow="10635" yWindow="1290" windowWidth="15495" windowHeight="12570" xr2:uid="{16D1361F-AF8A-45DB-84EB-D1BC3ADF0A0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -187,6 +187,10 @@
   </si>
   <si>
     <t>Compared known vulnerabilities from OWASP Juice Shop with test results, started final report generation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ran another validation test with "TryHackMe" and updated final report</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -718,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823B59C3-F7FB-4C88-B062-D5C7F3EC4BE0}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1200,11 +1204,22 @@
       <c r="A44" s="2">
         <v>45746</v>
       </c>
-      <c r="B44" s="6">
-        <v>4</v>
-      </c>
-      <c r="C44" s="7" t="s">
+      <c r="B44" s="3">
+        <v>4</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>45748</v>
+      </c>
+      <c r="B45" s="6">
+        <v>4</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Misc/JackieK-WorkLog.xlsx
+++ b/Misc/JackieK-WorkLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025 Winter\CSIS 4495\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFC6A95-9A58-476D-999F-69AC249DAC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64A353E-2E26-4B2A-B308-EC3515403EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10635" yWindow="1290" windowWidth="15495" windowHeight="12570" xr2:uid="{16D1361F-AF8A-45DB-84EB-D1BC3ADF0A0C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Date</t>
   </si>
@@ -191,6 +191,10 @@
   </si>
   <si>
     <t>Ran another validation test with "TryHackMe" and updated final report</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gathered evaluation from classmates and updated final report</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -722,7 +726,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823B59C3-F7FB-4C88-B062-D5C7F3EC4BE0}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C48" sqref="C48"/>
@@ -1215,11 +1219,22 @@
       <c r="A45" s="2">
         <v>45748</v>
       </c>
-      <c r="B45" s="6">
-        <v>4</v>
-      </c>
-      <c r="C45" s="7" t="s">
+      <c r="B45" s="3">
+        <v>4</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>45749</v>
+      </c>
+      <c r="B46" s="6">
+        <v>2</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Misc/JackieK-WorkLog.xlsx
+++ b/Misc/JackieK-WorkLog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025 Winter\CSIS 4495\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64A353E-2E26-4B2A-B308-EC3515403EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CD8BB4-504B-43DA-82EB-483A62F1EE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10635" yWindow="1290" windowWidth="15495" windowHeight="12570" xr2:uid="{16D1361F-AF8A-45DB-84EB-D1BC3ADF0A0C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Date</t>
   </si>
@@ -195,6 +195,10 @@
   </si>
   <si>
     <t>Gathered evaluation from classmates and updated final report</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switched Ollama to higher version and modified the codes to minimize scanning time</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -288,7 +292,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -304,9 +308,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -726,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823B59C3-F7FB-4C88-B062-D5C7F3EC4BE0}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1230,11 +1231,22 @@
       <c r="A46" s="2">
         <v>45749</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="3">
         <v>2</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="4" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>45751</v>
+      </c>
+      <c r="B47" s="3">
+        <v>4</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Misc/JackieK-WorkLog.xlsx
+++ b/Misc/JackieK-WorkLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025 Winter\CSIS 4495\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CD8BB4-504B-43DA-82EB-483A62F1EE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5CE52C-276F-461C-B5EC-82BB0C5CC552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10635" yWindow="1290" windowWidth="15495" windowHeight="12570" xr2:uid="{16D1361F-AF8A-45DB-84EB-D1BC3ADF0A0C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Date</t>
   </si>
@@ -199,6 +199,10 @@
   </si>
   <si>
     <t>Switched Ollama to higher version and modified the codes to minimize scanning time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Based on evaluation from classmates, final report structure and format was updated</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -292,7 +296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -308,6 +312,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -727,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823B59C3-F7FB-4C88-B062-D5C7F3EC4BE0}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1174,7 +1181,7 @@
       </c>
       <c r="C40" s="5"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>45742</v>
       </c>
@@ -1185,7 +1192,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>45744</v>
       </c>
@@ -1196,7 +1203,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>45745</v>
       </c>
@@ -1205,7 +1212,7 @@
       </c>
       <c r="C43" s="5"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>45746</v>
       </c>
@@ -1245,8 +1252,19 @@
       <c r="B47" s="3">
         <v>4</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="4" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>45753</v>
+      </c>
+      <c r="B48" s="6">
+        <v>4</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Misc/JackieK-WorkLog.xlsx
+++ b/Misc/JackieK-WorkLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025 Winter\CSIS 4495\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5CE52C-276F-461C-B5EC-82BB0C5CC552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A31E90D-A251-402F-A61D-B3CDC1FF73DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10635" yWindow="1290" windowWidth="15495" windowHeight="12570" xr2:uid="{16D1361F-AF8A-45DB-84EB-D1BC3ADF0A0C}"/>
+    <workbookView xWindow="13095" yWindow="1725" windowWidth="15495" windowHeight="12570" xr2:uid="{16D1361F-AF8A-45DB-84EB-D1BC3ADF0A0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -203,6 +203,10 @@
   </si>
   <si>
     <t>Based on evaluation from classmates, final report structure and format was updated</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debugging minor errors, generated evaluation form</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -734,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823B59C3-F7FB-4C88-B062-D5C7F3EC4BE0}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1260,11 +1264,22 @@
       <c r="A48" s="2">
         <v>45753</v>
       </c>
-      <c r="B48" s="6">
-        <v>4</v>
-      </c>
-      <c r="C48" s="7" t="s">
+      <c r="B48" s="3">
+        <v>4</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>45755</v>
+      </c>
+      <c r="B49" s="6">
+        <v>4</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Misc/JackieK-WorkLog.xlsx
+++ b/Misc/JackieK-WorkLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025 Winter\CSIS 4495\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A31E90D-A251-402F-A61D-B3CDC1FF73DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A817A8A-740E-4A18-9B67-392420A3F8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13095" yWindow="1725" windowWidth="15495" windowHeight="12570" xr2:uid="{16D1361F-AF8A-45DB-84EB-D1BC3ADF0A0C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Date</t>
   </si>
@@ -207,6 +207,10 @@
   </si>
   <si>
     <t>Debugging minor errors, generated evaluation form</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finalized report structure and format, finalized all the codes</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -738,9 +742,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823B59C3-F7FB-4C88-B062-D5C7F3EC4BE0}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
@@ -1275,11 +1279,22 @@
       <c r="A49" s="2">
         <v>45755</v>
       </c>
-      <c r="B49" s="6">
-        <v>4</v>
-      </c>
-      <c r="C49" s="7" t="s">
+      <c r="B49" s="3">
+        <v>4</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>45756</v>
+      </c>
+      <c r="B50" s="6">
+        <v>4</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Misc/JackieK-WorkLog.xlsx
+++ b/Misc/JackieK-WorkLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025 Winter\CSIS 4495\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A817A8A-740E-4A18-9B67-392420A3F8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F049291F-94FD-409E-9770-0BB3EC7A0945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13095" yWindow="1725" windowWidth="15495" windowHeight="12570" xr2:uid="{16D1361F-AF8A-45DB-84EB-D1BC3ADF0A0C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Date</t>
   </si>
@@ -211,6 +211,10 @@
   </si>
   <si>
     <t>Finalized report structure and format, finalized all the codes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rehearsed with the laptop borrowed from school library, continue generating final report</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -742,16 +746,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823B59C3-F7FB-4C88-B062-D5C7F3EC4BE0}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.125" customWidth="1"/>
-    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="88" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1231,7 +1235,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>45748</v>
       </c>
@@ -1242,7 +1246,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45749</v>
       </c>
@@ -1253,7 +1257,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>45751</v>
       </c>
@@ -1290,11 +1294,22 @@
       <c r="A50" s="2">
         <v>45756</v>
       </c>
-      <c r="B50" s="6">
-        <v>4</v>
-      </c>
-      <c r="C50" s="7" t="s">
+      <c r="B50" s="3">
+        <v>4</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>45757</v>
+      </c>
+      <c r="B51" s="6">
+        <v>2</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Misc/JackieK-WorkLog.xlsx
+++ b/Misc/JackieK-WorkLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025 Winter\CSIS 4495\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F049291F-94FD-409E-9770-0BB3EC7A0945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D25FC29-2351-4451-B531-D602767B1086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13095" yWindow="1725" windowWidth="15495" windowHeight="12570" xr2:uid="{16D1361F-AF8A-45DB-84EB-D1BC3ADF0A0C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{16D1361F-AF8A-45DB-84EB-D1BC3ADF0A0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Date</t>
   </si>
@@ -215,6 +215,22 @@
   </si>
   <si>
     <t>Rehearsed with the laptop borrowed from school library, continue generating final report</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Final report, user guide, installation guide generation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Complete final report generation, created presentation files</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total :</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -322,15 +338,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="셀 확인" xfId="1" builtinId="23"/>
@@ -746,20 +760,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823B59C3-F7FB-4C88-B062-D5C7F3EC4BE0}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="88" customWidth="1"/>
+    <col min="3" max="3" width="89.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="5" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -770,7 +784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45673</v>
       </c>
@@ -781,7 +795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>45675</v>
       </c>
@@ -792,7 +806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>45676</v>
       </c>
@@ -803,7 +817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>45677</v>
       </c>
@@ -814,7 +828,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>45680</v>
       </c>
@@ -825,7 +839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>45684</v>
       </c>
@@ -836,7 +850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>45686</v>
       </c>
@@ -847,7 +861,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>45688</v>
       </c>
@@ -858,7 +872,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>45691</v>
       </c>
@@ -869,7 +883,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>45693</v>
       </c>
@@ -880,7 +894,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>45695</v>
       </c>
@@ -891,7 +905,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>45696</v>
       </c>
@@ -902,7 +916,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>45698</v>
       </c>
@@ -913,7 +927,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>45700</v>
       </c>
@@ -924,7 +938,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>45701</v>
       </c>
@@ -935,7 +949,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>45702</v>
       </c>
@@ -946,7 +960,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>45703</v>
       </c>
@@ -957,7 +971,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>45706</v>
       </c>
@@ -968,7 +982,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>45707</v>
       </c>
@@ -979,7 +993,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="47.25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>45708</v>
       </c>
@@ -990,7 +1004,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>45710</v>
       </c>
@@ -1001,7 +1015,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>45711</v>
       </c>
@@ -1011,8 +1025,11 @@
       <c r="C23" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G23" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>45713</v>
       </c>
@@ -1023,7 +1040,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>45714</v>
       </c>
@@ -1034,7 +1051,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>45716</v>
       </c>
@@ -1045,7 +1062,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>45717</v>
       </c>
@@ -1056,7 +1073,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>45718</v>
       </c>
@@ -1067,7 +1084,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>45719</v>
       </c>
@@ -1078,7 +1095,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>45722</v>
       </c>
@@ -1089,7 +1106,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>45724</v>
       </c>
@@ -1100,7 +1117,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>45725</v>
       </c>
@@ -1111,7 +1128,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>45727</v>
       </c>
@@ -1122,7 +1139,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>45728</v>
       </c>
@@ -1133,7 +1150,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>45730</v>
       </c>
@@ -1144,7 +1161,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>45732</v>
       </c>
@@ -1155,45 +1172,45 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>45734</v>
       </c>
       <c r="B37" s="3">
         <v>4</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>45735</v>
       </c>
       <c r="B38" s="3">
         <v>4</v>
       </c>
-      <c r="C38" s="5"/>
-    </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="6"/>
+    </row>
+    <row r="39" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>45737</v>
       </c>
       <c r="B39" s="3">
         <v>6</v>
       </c>
-      <c r="C39" s="5"/>
-    </row>
-    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="6"/>
+    </row>
+    <row r="40" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>45739</v>
       </c>
       <c r="B40" s="3">
         <v>6</v>
       </c>
-      <c r="C40" s="5"/>
-    </row>
-    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="6"/>
+    </row>
+    <row r="41" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>45742</v>
       </c>
@@ -1204,27 +1221,27 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>45744</v>
       </c>
       <c r="B42" s="3">
         <v>5</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>45745</v>
       </c>
       <c r="B43" s="3">
         <v>5</v>
       </c>
-      <c r="C43" s="5"/>
-    </row>
-    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="6"/>
+    </row>
+    <row r="44" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>45746</v>
       </c>
@@ -1235,7 +1252,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>45748</v>
       </c>
@@ -1246,7 +1263,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45749</v>
       </c>
@@ -1257,7 +1274,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>45751</v>
       </c>
@@ -1268,7 +1285,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>45753</v>
       </c>
@@ -1279,7 +1296,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>45755</v>
       </c>
@@ -1290,7 +1307,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>45756</v>
       </c>
@@ -1301,15 +1318,46 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>45757</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51" s="3">
         <v>2</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="4" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>45759</v>
+      </c>
+      <c r="B52" s="3">
+        <v>8</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B53" s="3">
+        <v>8</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" s="7">
+        <f>SUM(B2:B53)</f>
+        <v>184.5</v>
       </c>
     </row>
   </sheetData>
